--- a/仕様書・資料/【仕様】遺跡ステージ仕様書.xlsx
+++ b/仕様書・資料/【仕様】遺跡ステージ仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMS\Documents\AMAZURU_Document\仕様書・資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF994F2-4F7E-43EB-93F5-55AB8A3DC4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8FFA50-FB52-41B4-A80C-A041B9DAD35E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D1780C82-A736-495F-97E5-FDC03B56B9FF}"/>
   </bookViews>
@@ -552,10 +552,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・プレイヤー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・ナマコッコ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -587,6 +583,10 @@
     <rPh sb="13" eb="14">
       <t>トオ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・プレイヤー</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -930,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1018,27 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,23 +1105,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,15 +1121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,13 +1147,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1207,13 +1210,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>70174</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57842</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1229,7 +1232,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5753100" y="13639799"/>
+          <a:off x="5753100" y="13877924"/>
           <a:ext cx="2889574" cy="2172393"/>
           <a:chOff x="7429500" y="5305424"/>
           <a:chExt cx="2889574" cy="2172393"/>
@@ -1325,13 +1328,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1347,7 +1350,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1343025" y="13725525"/>
+          <a:off x="1343025" y="13963650"/>
           <a:ext cx="3686176" cy="1952625"/>
           <a:chOff x="1390650" y="5829300"/>
           <a:chExt cx="3686176" cy="1952625"/>
@@ -1648,13 +1651,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1711,13 +1714,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1774,13 +1777,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1837,13 +1840,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>200028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1900,13 +1903,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1963,13 +1966,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2026,13 +2029,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2102,13 +2105,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2178,13 +2181,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5306,10 +5309,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="1955047" y="8623777"/>
-            <a:ext cx="292854" cy="397204"/>
-            <a:chOff x="9201150" y="2914650"/>
-            <a:chExt cx="828675" cy="1123950"/>
+            <a:off x="3673483" y="8700702"/>
+            <a:ext cx="430640" cy="292854"/>
+            <a:chOff x="14063753" y="3132315"/>
+            <a:chExt cx="1218564" cy="828674"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -5324,9 +5327,9 @@
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9201150" y="3324225"/>
-              <a:ext cx="828675" cy="714375"/>
+            <a:xfrm rot="16200000">
+              <a:off x="14510793" y="3189464"/>
+              <a:ext cx="828674" cy="714375"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
               <a:avLst/>
@@ -5369,9 +5372,9 @@
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9239250" y="2914650"/>
-              <a:ext cx="704850" cy="704850"/>
+            <a:xfrm rot="16200000">
+              <a:off x="14063754" y="3157218"/>
+              <a:ext cx="704849" cy="704851"/>
             </a:xfrm>
             <a:prstGeom prst="ellipse">
               <a:avLst/>
@@ -7095,13 +7098,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7460,11 +7463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D58E09D-043F-4FE8-A134-30D13A4FAFF5}">
-  <dimension ref="A1:BM101"/>
+  <dimension ref="A1:BM102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF22" sqref="AF22"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT43" sqref="AT43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7508,40 +7511,40 @@
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:34" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -7643,67 +7646,67 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="6:65" x14ac:dyDescent="0.4">
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="6:65" x14ac:dyDescent="0.4">
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="6:65" x14ac:dyDescent="0.4">
       <c r="G19" s="15"/>
@@ -8847,28 +8850,28 @@
     </row>
     <row r="43" spans="7:65" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="7:65" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H44" s="57" t="s">
-        <v>41</v>
+      <c r="H44" s="61" t="s">
+        <v>40</v>
       </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="60" t="s">
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="62"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="60"/>
     </row>
     <row r="45" spans="7:65" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="H45" s="24" t="s">
@@ -8882,13 +8885,13 @@
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="23"/>
-      <c r="Q45" s="51" t="s">
+      <c r="Q45" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="53"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="32"/>
     </row>
     <row r="46" spans="7:65" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="H46" s="24" t="s">
@@ -8902,13 +8905,13 @@
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="23"/>
-      <c r="Q46" s="51" t="s">
+      <c r="Q46" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="53"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="32"/>
     </row>
     <row r="47" spans="7:65" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="H47" s="24" t="s">
@@ -8922,497 +8925,513 @@
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="23"/>
-      <c r="Q47" s="51" t="s">
-        <v>40</v>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="32"/>
+    </row>
+    <row r="48" spans="7:65" s="29" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H48" s="24" t="s">
+        <v>42</v>
       </c>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="53"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="32"/>
     </row>
-    <row r="48" spans="7:65" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H48" s="25" t="s">
+    <row r="49" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H49" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="56"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="35"/>
     </row>
-    <row r="49" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="1:34" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
+    <row r="50" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:34" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.4">
       <c r="F53" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.4">
       <c r="F54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="F55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="Y56" s="13" t="s">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="Y57" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="44"/>
-    </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F58" s="45"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="47"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="51"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F59" s="45"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="47"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="54"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F60" s="45"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="47"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="54"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F61" s="45"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="47"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F62" s="45"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="47"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F63" s="45"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="47"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="54"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F64" s="45"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="47"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="54"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="50"/>
+    <row r="65" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="54"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F67" s="14" t="s">
+    <row r="66" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F66" s="55"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="57"/>
+    </row>
+    <row r="68" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F68" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="44"/>
+    <row r="69" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F69" s="49"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="51"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F69" s="45"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="47"/>
+    <row r="70" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="54"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F70" s="45"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="47"/>
+    <row r="71" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="53"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="53"/>
+      <c r="R71" s="53"/>
+      <c r="S71" s="53"/>
+      <c r="T71" s="53"/>
+      <c r="U71" s="53"/>
+      <c r="V71" s="54"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F71" s="45"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="47"/>
+    <row r="72" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="53"/>
+      <c r="R72" s="53"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="53"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="54"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F72" s="45"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="47"/>
+    <row r="73" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F73" s="52"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="54"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F73" s="45"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="47"/>
+    <row r="74" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+      <c r="R74" s="53"/>
+      <c r="S74" s="53"/>
+      <c r="T74" s="53"/>
+      <c r="U74" s="53"/>
+      <c r="V74" s="54"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F74" s="45"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="47"/>
+    <row r="75" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F75" s="52"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="53"/>
+      <c r="O75" s="53"/>
+      <c r="P75" s="53"/>
+      <c r="Q75" s="53"/>
+      <c r="R75" s="53"/>
+      <c r="S75" s="53"/>
+      <c r="T75" s="53"/>
+      <c r="U75" s="53"/>
+      <c r="V75" s="54"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F75" s="45"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="47"/>
+    <row r="76" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="53"/>
+      <c r="S76" s="53"/>
+      <c r="T76" s="53"/>
+      <c r="U76" s="53"/>
+      <c r="V76" s="54"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F76" s="48"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
-      <c r="T76" s="49"/>
-      <c r="U76" s="49"/>
-      <c r="V76" s="50"/>
+    <row r="77" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="57"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="F77" t="s">
+    <row r="78" spans="6:22" x14ac:dyDescent="0.4">
+      <c r="F78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9" t="s">
+    <row r="81" spans="1:34" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="16" t="s">
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="9"/>
-      <c r="AC80" s="9"/>
-      <c r="AD80" s="9"/>
-      <c r="AE80" s="9"/>
-      <c r="AF80" s="9"/>
-      <c r="AG80" s="9"/>
-      <c r="AH80" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="9"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F82" t="s">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="F83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F83" t="s">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="F84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="11" t="s">
+    <row r="102" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9421,8 +9440,8 @@
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="H2:O3"/>
-    <mergeCell ref="F57:V65"/>
-    <mergeCell ref="F68:V76"/>
+    <mergeCell ref="F58:V66"/>
+    <mergeCell ref="F69:V77"/>
     <mergeCell ref="G12:M18"/>
     <mergeCell ref="Q44:U44"/>
     <mergeCell ref="H44:P44"/>
